--- a/測資說明.xlsx
+++ b/測資說明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shchiang/Coding/eclipse-workspace/SQA_Final_v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shchiang/Coding/eclipse-workspace/SQA_Final_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2873F57-5BC9-2045-B790-FFD374220B51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D272FB-98D7-0F4D-A0E8-45CA1C4CEF40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="1500" windowWidth="28260" windowHeight="17560" xr2:uid="{770D8BFF-3E85-DB4E-BFDC-40560C9DC04E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" xr2:uid="{770D8BFF-3E85-DB4E-BFDC-40560C9DC04E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
   <si>
     <t>stu1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,14 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stu4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stu0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,62 +73,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>國文&lt;0 or &gt;100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文&lt;0 or &gt;100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數學&lt;0 or &gt;100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理&lt;0 or &gt;100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化學&lt;0 or &gt;100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0人正取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1人正取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sch6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2人以上正取且有同分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2人以上正取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0人備取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1人以上備取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2人以上備取且有同分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>student</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +162,230 @@
   </si>
   <si>
     <t>{"B", 1, 1, 1, 1, -3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑箱測試：使用等價分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu0：學生志願序正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu1：學生志願序有放棄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu2：學生志願序學校不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch0：0人正取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch1：1人正取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch2：2人以上正取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch3：2人以上正取且有同分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch4：0人備取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch5：1人以上備取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch6：2人以上備取且有同分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"A", 1.5, 1, 1, 1, 0.5},
+{"B", 2, 1, 1, 1, 1},
+{"C", 1.5, 1, 2, 1, 1},
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體 (本文)"/>
+        <charset val="136"/>
+      </rPr>
+      <t>{"D", 1, 2, 2 ,1, 0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 10, 20, 30, 40, 50, "A", "B", "C"},
+{"02", 10, 20, 30, 40, 50, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"A", 1.5, 1, 1, 1, 0.5},
+{"B", 2, 1, 1, 1, 1},
+{"C", 1.5, 1, 2, 1, 1},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 10, 20, 30, 40, 50, "A", "B", "C"},
+{"02", 11, 20, 30, 40, 50, "A", "B", "C"},
+{"03", 100, 20, 30, 40, 50, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 10, 20, 30, 40, 50, "A", "B", "C"},
+{"02", 11, 20, 30, 40, 50, "A", "B", "C"},
+{"03", 100, 20, 30, 40, 50, "A", "B", "C"},
+{"04", 100, 100, 30, 40, 50, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 11, 20, 30, 40, 50, "A", "B", "C"},
+{"02", 10, 20, 30, 40, 50, "A", "B", "C"},
+{"03", 100, 20, 30, 40, 50, "A", "B", "C"},
+{"04", 100, 100, 30, 40, 50, "A", "B", "C"},
+{"05", 10, 20, 30, 40, 50, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 11, 20, 30, 40, 50, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"D", 1, 2, 2 ,1, 0}</t>
+  </si>
+  <si>
+    <t>{"01", 11, 20, 30, 40, 50, "", "", ""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"A", 2, 1, 1, 1, 0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 11, 20, 30, 40, 50, "C", "", ""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"C", 2, 1, 1, 1, 0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchoolTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudentTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要測例外處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu0：成績正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 10, 20, 40, 50, 60, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", -1, 20, 40, 50, 60, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 101, 20, 40, 50, 60, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 10, -20, 40, 50, 60, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 10, 200, 40, 50, 60, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 10, 20, -40, 50, 60, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 10, 20, 400, 50, 60, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 10, 20, 40, -50, 60, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 10, 20, 40, 500, 60, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 10, 20, 40, 50, -60, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"01", 10, 20, 40, 50, 600, "A", "B", "C"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputFileTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu0：學生csv存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu1：學生csv不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch0： 學校csv存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch1：學校 csv不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"./input/student_input.csv"</t>
+  </si>
+  <si>
+    <t>"./input/school_input.csv"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +433,25 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體 (本文)"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體 (本文)"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,6 +496,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,361 +823,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445BEF71-CC43-3C41-9957-7F969A58A352}">
-  <dimension ref="B1:R38"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="10" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="56">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="42">
+      <c r="B14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="42">
+      <c r="B15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="56">
+      <c r="B16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="70">
+      <c r="B17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" ht="28">
+      <c r="B29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" ht="42">
+      <c r="B30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C30" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="2:18">
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="2:18" ht="28">
-      <c r="B24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:18" ht="42">
-      <c r="B25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="2:18" ht="56">
-      <c r="B26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="2:18" ht="70">
-      <c r="B27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18">
-      <c r="B29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18">
-      <c r="B30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" ht="56">
       <c r="B31" s="4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" ht="70">
       <c r="B32" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
+      <c r="J32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -992,15 +1326,15 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1010,15 +1344,15 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="B35" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1028,15 +1362,15 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="B36" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1046,15 +1380,15 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="B37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1064,22 +1398,311 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="C73" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
